--- a/CheckList_itcareer.xlsx
+++ b/CheckList_itcareer.xlsx
@@ -758,18 +758,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="67.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="37" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/CheckList_itcareer.xlsx
+++ b/CheckList_itcareer.xlsx
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/CheckList_itcareer.xlsx
+++ b/CheckList_itcareer.xlsx
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
